--- a/biology/Microbiologie/Franconibacter/Franconibacter.xlsx
+++ b/biology/Microbiologie/Franconibacter/Franconibacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franconibacter est un genre de bacilles Gram négatifs (BGN) de la famille des Enterobacteriaceae. Son nom fait référence au microbiologiste Augusto Franco-Mora[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franconibacter est un genre de bacilles Gram négatifs (BGN) de la famille des Enterobacteriaceae. Son nom fait référence au microbiologiste Augusto Franco-Mora.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été créé en 2014 par reclassement de deux espèces auparavant rattachées au genre Enterobacter, déjà comptées dans la famille des Enterobacteriaceae.
-Jusqu'en 2016 il était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Franconibacter reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant[2].
+Jusqu'en 2016 il était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Franconibacter reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (1er novembre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (1er novembre 2022) :
 Franconibacter daqui Gao et al. 2017
 Franconibacter helveticus (Stephan et al. 2007) Stephan et al. 2014 – espèce type
 Franconibacter pulveris (Stephan et al. 2008) Stephan et al. 2014</t>
